--- a/biology/Botanique/Turnera_rupestris/Turnera_rupestris.xlsx
+++ b/biology/Botanique/Turnera_rupestris/Turnera_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turnera rupestris est une espèce de plantes à fleurs de la famille des Passifloraceae (anciennement des Turneraceae). C'est arbrisseau endémique des Guyanes, protégée en Guyane, et fut partiellement menacée de disparition par la mise en eau du barrage de Petit-Saut dans les années 1990[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnera rupestris est une espèce de plantes à fleurs de la famille des Passifloraceae (anciennement des Turneraceae). C'est arbrisseau endémique des Guyanes, protégée en Guyane, et fut partiellement menacée de disparition par la mise en eau du barrage de Petit-Saut dans les années 1990.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turnera rupestris Aublet. est inscrite sur la liste des espèces végétales protégées[3], et a le statut d'espèce déterminante ZNIEFF en Guyane[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnera rupestris Aublet. est inscrite sur la liste des espèces végétales protégées, et a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Turnera rupestris est un arbrisseau haut de 50 à 200 cm, à rameaux poilus-jaunâtres devenant glabrescents avec l'âge.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnera rupestris est un arbrisseau haut de 50 à 200 cm, à rameaux poilus-jaunâtres devenant glabrescents avec l'âge.
 Les feuilles rassemblées au sommet des rameaux, mesurant 5-9 cm sur 1-2 cm, sont sub-sessiles, de forme linéaires-lancéolées aiguës aux extrémités, avec de petites dents espacées, dépourvues de glandes, pubescentes devenant glabres. La nervure médiane est saillante. Les nervures secondaires sont unies en nervure marginale. Les stipules sont petites.
 Les fleurs sont axillaires solitaires sessiles ou presque, avec des bractéoles pubescentes.
 Le calice est extérieurement sub-glabre.
@@ -552,11 +568,8 @@
 Les filets sont poilus.
 L'ovaire est glabre lisse 3-6-ovulé.
 Les styles sont pubescents.
-Le fruit est une capsule globuleuse penta-tuberculée, de 2 mm de diamètre[5],[6].
-Variétés
-Turnera rupestris comprend deux variétés reconnues :
-Turnera rupestris var. frutescens (Aubl.) Urb., 1883[7] est un arbuste haut de 0,5-2,5 m, à branches cylindriques, finement striées, couvertes de poils jaunes, puis glabrescentes. Les feuilles sont brièvement pedonculés, à pétiole long de 2-3 mm, à limbe lancéolé, acuminé, large de 1-2 cm, avec bractées arrondies à subulées, longues de 1-3 mm, et des fleurs sessiles longues de 1 cm. Les graines sont pubérulentes[2],[6].
-Turnera rupestris Aubl. var. rupestris est un arbrisseau de hauteur inférieure à 1 m (20-80 cm), à tiges ligneuses très ramifiées, et à racine pivotante. Les feuilles sont sessiles à subsessiles avec des pétioles long de moins de 1,5 mm, le limbe lineaire à sommet aigu, large de moins d'1 cm. Les bractées sont subulées, longues de 3-4 mm. La fleur est brièvement pédonculée (&lt; 1 cm)[2].</t>
+Le fruit est une capsule globuleuse penta-tuberculée, de 2 mm de diamètre,.
+</t>
         </is>
       </c>
     </row>
@@ -581,13 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Turnera rupestris var. frutescens est présent au Guyana, au Suriname et en Guyane[6] ;
-Turnera rupestris var. rupestris est endémique du bassin inférieur du Sinnamary (Guyane)[2], mais possiblement aussi du Guyana et du Suriname[8].</t>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Turnera rupestris comprend deux variétés reconnues :
+Turnera rupestris var. frutescens (Aubl.) Urb., 1883 est un arbuste haut de 0,5-2,5 m, à branches cylindriques, finement striées, couvertes de poils jaunes, puis glabrescentes. Les feuilles sont brièvement pedonculés, à pétiole long de 2-3 mm, à limbe lancéolé, acuminé, large de 1-2 cm, avec bractées arrondies à subulées, longues de 1-3 mm, et des fleurs sessiles longues de 1 cm. Les graines sont pubérulentes,.
+Turnera rupestris Aubl. var. rupestris est un arbrisseau de hauteur inférieure à 1 m (20-80 cm), à tiges ligneuses très ramifiées, et à racine pivotante. Les feuilles sont sessiles à subsessiles avec des pétioles long de moins de 1,5 mm, le limbe lineaire à sommet aigu, large de moins d'1 cm. Les bractées sont subulées, longues de 3-4 mm. La fleur est brièvement pédonculée (&lt; 1 cm).</t>
         </is>
       </c>
     </row>
@@ -612,13 +632,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Turnera rupestris var. frutescens affectionne les sous-bois clair, sur sol très humifère, souvent dans les forêts basses des inselbergs, mais également dans des zones marécageuses en bordure de crique ;
-Turnera rupestris var. rupestris est ripicole et rupicole : elle pousse sous un léger ombrage, dans une ambiance humide presque permanente du fait de la nébulosité créée par les rapides voisins. On la rencontre en effet à proximité immédiate des cours d'eau, sur les berges rocheuses, s'enracinant la plupart du temps dans les fissures des rochers des sauts, à moins de 2 m du niveau des eaux permanentes. Soumise aux des crues plusieurs foie par an, elle résiste à une submersion de courte durée et à des courants forts. Si quelques pieds se développent aussi sur un substrat sableux grossier de faible épaisseur, leurs racines plongent dans les anfractuosités des rochers sous-jacents.</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Turnera rupestris var. frutescens est présent au Guyana, au Suriname et en Guyane ;
+Turnera rupestris var. rupestris est endémique du bassin inférieur du Sinnamary (Guyane), mais possiblement aussi du Guyana et du Suriname.</t>
         </is>
       </c>
     </row>
@@ -643,14 +665,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Turnera rupestris var. frutescens affectionne les sous-bois clair, sur sol très humifère, souvent dans les forêts basses des inselbergs, mais également dans des zones marécageuses en bordure de crique ;
+Turnera rupestris var. rupestris est ripicole et rupicole : elle pousse sous un léger ombrage, dans une ambiance humide presque permanente du fait de la nébulosité créée par les rapides voisins. On la rencontre en effet à proximité immédiate des cours d'eau, sur les berges rocheuses, s'enracinant la plupart du temps dans les fissures des rochers des sauts, à moins de 2 m du niveau des eaux permanentes. Soumise aux des crues plusieurs foie par an, elle résiste à une submersion de courte durée et à des courants forts. Si quelques pieds se développent aussi sur un substrat sableux grossier de faible épaisseur, leurs racines plongent dans les anfractuosités des rochers sous-jacents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Turnera_rupestris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Turnera_rupestris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menace de disparition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Turnera rupestris var. rupestris, variété rare et endémique fut particulièrement affectée par la mise en eau du barrage de Petit-Saut.
 Une partie de sa population fut préservée dans la Réserve naturelle nationale de la Trinité, crée à cette époque.
-En complément, il était recommandé à l'époque de la mise en eau du barrage[2] : 
+En complément, il était recommandé à l'époque de la mise en eau du barrage : 
 de sauvegarder les dernières stations en aval du barrage (Crique Grégoire et Saut Kerrenroch) ;
 de l'introduire sur d'autres fleuves guyanais ;
 de déplacer les populations ennoyées plus en amont du barrage si des stations adéquates sont découvertes ;
@@ -658,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Turnera_rupestris</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Turnera_rupestris</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Protologues</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose le protologue suivant pour Turnera rupestris Aubl. var. rupestris :
 « TURNERA (rupeſtris). foliis linearibus, ſerratis. {TABULA 113. Fig. 1.)
@@ -696,7 +755,7 @@
 Le piſtil eſt un ovaire ovoïde, ſurmonté de trois styles jaunes, terminés chacun par cinq ou ſix stigmates longs, grêles &amp; jaunes.
 L'ovaire devient une capsule ſèche, à trois côtes arrondies, qui s'ouvre en trois valves, &amp; contient trois semences.
 J'ai trouvé ce petit arbriſſeau dans les fentes humides des rochers des grands ſauts de Sinémari. Il étoit en fleur &amp; en fruit dans le mois de Novembre. »
-— Fusée-Aublet, 1775[9].
+— Fusée-Aublet, 1775.
 En 1775, Aublet propose le protologue suivant pour Turnera rupestris var. frutescens (Aubl.) Urb., 1883 :
 « TURNERA (fruteſcens). foliis lanceolatis, ſerratis. (Tabula 113. Fig. 2.).
 Frutex octo-pedalis ; caule &amp; ramis lignoſis. Folia alterna, ſubſeſſilia, lanceolata, acuta, denticulata, e luteo virentia, flores axillares, lutei, exigui, ſolitarii.
@@ -708,7 +767,7 @@
 II croît ſur des rochers qui bordent la rivière de Sinémari au deſſus du grand ſaut.
 Ces arbriſſeaux ſont nommés NOPOTOGOMOTI par les Galibis.
 On a groſſi toutes les parties de la fleur qui eſt fort petite, &amp; qui eſt repréſentée ſur les rameaux de grandeur naturelle. »
-— Fusée-Aublet, 1775[10].</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
